--- a/results/pvalue_SIDER_rare_indication_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_indication_AUROCperdrug.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22.453</t>
+          <t>10.794</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21.014</t>
+          <t>10.693</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.589</t>
+          <t>9.737</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32.504</t>
+          <t>16.623</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.080</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.138</t>
+          <t>8.139</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.675</t>
+          <t>7.676</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.976</t>
+          <t>8.978</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>12.829</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-5.505</t>
+          <t>-2.333</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
